--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>105</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>87.3687684930112</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1618,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>67.64905621875333</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>48.28312417100302</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>56.16876849301121</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1942,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>67.64905621875333</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1963,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2016,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>48.28312417100302</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>60.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.468</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.1779999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>193.2649999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>217.0249999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>264.05</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>326.6179999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>397.0069999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>475.2169999999998</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>530.8240808080809</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>585.6700808080809</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.6950808080809</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>651.2080808080809</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>641.0060606060607</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>213.56</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>307.115</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>387.8989999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>387.8989999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>454.8715656565657</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>454.8715656565657</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>454.8715656565657</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.0565656565657</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626263</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>140.795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>182.375</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>230.175292929293</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>290.169292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.04000000002</v>
+        <v>76155.74719999998</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9310.695971227427</v>
+        <v>9285.872463556781</v>
       </c>
       <c r="E2" t="n">
-        <v>2390</v>
+        <v>2365</v>
       </c>
       <c r="F2" t="n">
-        <v>25205.00912794127</v>
+        <v>25216.55341308785</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>57.60404040404041</v>
       </c>
       <c r="K2" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>87.3687684930112</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>16.25311702887463</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>105</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>67.64905621875333</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>48.28312417100302</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>84</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>37.38312417100297</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>18.60404040404041</v>
       </c>
       <c r="K2" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>63.2</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>71.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>56.16876849301121</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>16.25311702887463</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>81.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>67.64905621875333</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>48.28312417100302</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>60.6</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>37.38312417100297</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>25.14799999999994</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>187.8909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626263</v>
+        <v>155.0626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>141.9313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="G2" t="n">
-        <v>143.468</v>
+        <v>141.67</v>
       </c>
       <c r="H2" t="n">
-        <v>172.1779999999999</v>
+        <v>169.984</v>
       </c>
       <c r="I2" t="n">
-        <v>193.2649999999999</v>
+        <v>190.576</v>
       </c>
       <c r="J2" t="n">
-        <v>217.0249999999999</v>
+        <v>208.994</v>
       </c>
       <c r="K2" t="n">
-        <v>264.05</v>
+        <v>255.326</v>
       </c>
       <c r="L2" t="n">
-        <v>326.6179999999999</v>
+        <v>317.102</v>
       </c>
       <c r="M2" t="n">
-        <v>397.0069999999998</v>
+        <v>386.6</v>
       </c>
       <c r="N2" t="n">
-        <v>475.2169999999998</v>
+        <v>463.82</v>
       </c>
       <c r="O2" t="n">
-        <v>530.8240808080809</v>
+        <v>525.596</v>
       </c>
       <c r="P2" t="n">
-        <v>585.6700808080809</v>
+        <v>579.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.6950808080809</v>
+        <v>625.982</v>
       </c>
       <c r="R2" t="n">
-        <v>651.2080808080809</v>
+        <v>644</v>
       </c>
       <c r="S2" t="n">
-        <v>641.0060606060607</v>
+        <v>633.4949494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929294</v>
+        <v>608.0929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>489.9111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262627</v>
+        <v>391.4262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383839</v>
+        <v>312.6383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>260.1131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>220.7191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>181.3252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>161.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>144.8905858585859</v>
       </c>
       <c r="J3" t="n">
-        <v>130.4</v>
+        <v>206.6665858585859</v>
       </c>
       <c r="K3" t="n">
-        <v>213.56</v>
+        <v>206.6665858585859</v>
       </c>
       <c r="L3" t="n">
-        <v>307.115</v>
+        <v>299.3305858585859</v>
       </c>
       <c r="M3" t="n">
-        <v>387.8989999999999</v>
+        <v>299.3305858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>387.8989999999999</v>
+        <v>355.9585858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>454.8715656565657</v>
+        <v>428.0305858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>454.8715656565657</v>
+        <v>428.0305858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.8715656565657</v>
+        <v>453.7705858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>486.0565656565657</v>
+        <v>484.6585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>463.6484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>214.1535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="J4" t="n">
-        <v>140.795</v>
+        <v>139.096</v>
       </c>
       <c r="K4" t="n">
-        <v>182.375</v>
+        <v>180.28</v>
       </c>
       <c r="L4" t="n">
-        <v>230.175292929293</v>
+        <v>252.352</v>
       </c>
       <c r="M4" t="n">
-        <v>290.169292929293</v>
+        <v>252.352</v>
       </c>
       <c r="N4" t="n">
-        <v>373.3292929292929</v>
+        <v>252.352</v>
       </c>
       <c r="O4" t="n">
-        <v>373.3292929292929</v>
+        <v>324.424</v>
       </c>
       <c r="P4" t="n">
-        <v>373.3292929292929</v>
+        <v>361.4332929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3292929292929</v>
+        <v>361.4332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>201.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.052000000000064</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76155.74719999998</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9285.872463556781</v>
+        <v>7066.221906540154</v>
       </c>
       <c r="E2" t="n">
-        <v>2365</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>25216.55341308785</v>
+        <v>27138.95386277375</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.60404040404041</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.25311702887463</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>37.38312417100297</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>17.6</v>
       </c>
       <c r="J2" t="n">
-        <v>18.60404040404041</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>42.43427201306118</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>14.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.25311702887463</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>17.93079277624771</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1905,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>37.38312417100297</v>
+        <v>85.3831241710019</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.14799999999994</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.8909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>141.9313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>141.67</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>169.984</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>190.576</v>
+        <v>213.852</v>
       </c>
       <c r="J2" t="n">
-        <v>208.994</v>
+        <v>362.352</v>
       </c>
       <c r="K2" t="n">
-        <v>255.326</v>
+        <v>362.352</v>
       </c>
       <c r="L2" t="n">
-        <v>317.102</v>
+        <v>404.3619292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>386.6</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>463.82</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>525.596</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>579.65</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>625.982</v>
+        <v>552.8619292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>644</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>633.4949494949495</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.0929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>489.9111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>391.4262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.1131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.7191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181.3252525252525</v>
+        <v>317.6767676767665</v>
       </c>
       <c r="C3" t="n">
-        <v>161.6282828282828</v>
+        <v>297.9797979797976</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4969696969697</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4969696969697</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="F3" t="n">
-        <v>148.4969696969697</v>
+        <v>284.8484848484837</v>
       </c>
       <c r="G3" t="n">
-        <v>128.8</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="H3" t="n">
-        <v>128.8</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="I3" t="n">
-        <v>144.8905858585859</v>
+        <v>265.1515151515148</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6665858585859</v>
+        <v>383.9515151515148</v>
       </c>
       <c r="K3" t="n">
-        <v>206.6665858585859</v>
+        <v>383.9515151515148</v>
       </c>
       <c r="L3" t="n">
-        <v>299.3305858585859</v>
+        <v>383.9515151515148</v>
       </c>
       <c r="M3" t="n">
-        <v>299.3305858585859</v>
+        <v>383.9515151515148</v>
       </c>
       <c r="N3" t="n">
-        <v>355.9585858585859</v>
+        <v>532.4515151515147</v>
       </c>
       <c r="O3" t="n">
-        <v>428.0305858585859</v>
+        <v>532.4515151515147</v>
       </c>
       <c r="P3" t="n">
-        <v>428.0305858585859</v>
+        <v>552.5485151515147</v>
       </c>
       <c r="Q3" t="n">
-        <v>453.7705858585859</v>
+        <v>570.3</v>
       </c>
       <c r="R3" t="n">
-        <v>484.6585858585859</v>
+        <v>600</v>
       </c>
       <c r="S3" t="n">
-        <v>463.6484848484848</v>
+        <v>600</v>
       </c>
       <c r="T3" t="n">
-        <v>332.3353535353535</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="U3" t="n">
-        <v>332.3353535353535</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="V3" t="n">
-        <v>332.3353535353535</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="W3" t="n">
-        <v>253.5474747474748</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="X3" t="n">
-        <v>253.5474747474748</v>
+        <v>389.8989898989892</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.1535353535353</v>
+        <v>350.5050505050494</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>139.096</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>180.28</v>
+        <v>189.3</v>
       </c>
       <c r="L4" t="n">
-        <v>252.352</v>
+        <v>189.3</v>
       </c>
       <c r="M4" t="n">
-        <v>252.352</v>
+        <v>189.3</v>
       </c>
       <c r="N4" t="n">
-        <v>252.352</v>
+        <v>189.3</v>
       </c>
       <c r="O4" t="n">
-        <v>324.424</v>
+        <v>189.3</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4332929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>361.4332929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>45.3831241710019</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.23427201306117</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3451,16 +3451,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>43.93079277624771</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>173.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>6.052000000000064</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540154</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>27138.95386277375</v>
+        <v>25654.70836183914</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>17.6</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>42.43427201306118</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>136.2342720130611</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>14.9</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>5.630792776247632</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.93079277624771</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>85.3831241710019</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>213.852</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>362.352</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>362.352</v>
+        <v>223.653</v>
       </c>
       <c r="L2" t="n">
-        <v>404.3619292929305</v>
+        <v>256.917</v>
       </c>
       <c r="M2" t="n">
-        <v>552.8619292929305</v>
+        <v>294.3389999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>552.8619292929305</v>
+        <v>335.9189999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>552.8619292929305</v>
+        <v>365.6189999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>552.8619292929305</v>
+        <v>500.4909292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.8619292929305</v>
+        <v>521.8749292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>567.6129292929305</v>
+        <v>522.0729292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>317.6767676767665</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>297.9797979797976</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>284.8484848484837</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>284.8484848484837</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>284.8484848484837</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>265.1515151515148</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>265.1515151515148</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>265.1515151515148</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>383.9515151515148</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>383.9515151515148</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>383.9515151515148</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>383.9515151515148</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>532.4515151515147</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>532.4515151515147</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>552.5485151515147</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>570.3</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>600</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>600</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>468.6868686868687</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>468.6868686868687</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>468.6868686868687</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>389.8989898989892</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>389.8989898989892</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>350.5050505050494</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>189.3</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>189.3</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>189.3</v>
+        <v>231.474</v>
       </c>
       <c r="N4" t="n">
-        <v>189.3</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>189.3</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>110.4342720130611</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.2307927762476334</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3675,40 +3675,40 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.23427201306117</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.93079277624771</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>173.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673707</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>25654.70836183912</v>
+        <v>-58.63871571594875</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.78312417100183</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.73427201305383</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.63079277624766</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.78312417100183</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>139.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>236.8200000000043</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>294.9669292929276</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>316.3509292929276</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>349.6149292929276</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>387.0369292929276</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>428.6169292929276</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>458.3169292929276</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8589292929276</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>505.2429292929276</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.424</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.474</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>285.33</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>56.93427201305384</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3637,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3708,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2307927762476404</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4252,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>95.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4279,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>94.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>-58.63871571594875</v>
+        <v>25654.70836183914</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>136.2342720130611</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.630792776247632</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>223.653</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>256.917</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>294.3389999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>335.9189999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>365.6189999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>500.4909292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>521.8749292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>522.0729292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>231.474</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>110.4342720130611</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.2307927762476334</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>25654.70836183914</v>
+        <v>24392.63825713917</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>30.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>22.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>34.93427201306108</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>136.2342720130611</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>43.4</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>77</v>
       </c>
       <c r="P3" t="n">
-        <v>5.630792776247632</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>93</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.23079277624765</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>11.38312417100181</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>82</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.173</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>202.368</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>224.742</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>224.742</v>
       </c>
       <c r="K2" t="n">
-        <v>223.653</v>
+        <v>259.3269292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>256.917</v>
+        <v>259.3269292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>294.3389999999999</v>
+        <v>407.8269292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>335.9189999999999</v>
+        <v>556.3269292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>365.6189999999999</v>
+        <v>556.3269292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>500.4909292929304</v>
+        <v>556.3269292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>521.8749292929305</v>
+        <v>556.3269292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0729292929304</v>
+        <v>556.3269292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>123.96</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>189.3</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>197.22</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>206.13</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>206.13</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>206.13</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>282.36</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>282.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>310.08</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>402.15</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>201.18</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>244.74</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>251.67</v>
       </c>
       <c r="M4" t="n">
-        <v>231.474</v>
+        <v>251.67</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>259.59</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>266.52</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>270.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>281.7492929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>110.4342720130611</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2307927762476334</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,40 +3675,40 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.93427201306108</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3773,19 +3773,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>11.63079277624767</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9.383124171001812</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>75.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>33.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>80569.87555147435</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177227</v>
+        <v>15404.58112947659</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F2" t="n">
-        <v>24392.63825713917</v>
+        <v>24966.52562484596</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>34.93427201306108</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>118.5722783389462</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>15.3</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>77</v>
+        <v>14.65715743291534</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>93</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>53.23079277624765</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>11.38312417100181</v>
+        <v>8.583124171001764</v>
       </c>
       <c r="R4" t="n">
-        <v>82</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.8909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>192.1939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>179.0626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.9313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="G2" t="n">
-        <v>172.173</v>
+        <v>176.659</v>
       </c>
       <c r="H2" t="n">
-        <v>202.368</v>
+        <v>230.812</v>
       </c>
       <c r="I2" t="n">
-        <v>224.742</v>
+        <v>261.502</v>
       </c>
       <c r="J2" t="n">
-        <v>224.742</v>
+        <v>294.469</v>
       </c>
       <c r="K2" t="n">
-        <v>259.3269292929305</v>
+        <v>381.193</v>
       </c>
       <c r="L2" t="n">
-        <v>259.3269292929305</v>
+        <v>498.5795555555567</v>
       </c>
       <c r="M2" t="n">
-        <v>407.8269292929305</v>
+        <v>513.7265555555567</v>
       </c>
       <c r="N2" t="n">
-        <v>556.3269292929305</v>
+        <v>641.4365555555568</v>
       </c>
       <c r="O2" t="n">
-        <v>556.3269292929305</v>
+        <v>647.3765555555567</v>
       </c>
       <c r="P2" t="n">
-        <v>556.3269292929305</v>
+        <v>647.3765555555567</v>
       </c>
       <c r="Q2" t="n">
-        <v>556.3269292929305</v>
+        <v>734.1005555555566</v>
       </c>
       <c r="R2" t="n">
-        <v>556.3269292929305</v>
+        <v>758.3555555555556</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>719.3656565656577</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>632.0929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.9111111111112</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>415.4262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>336.638383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>284.1131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>244.7191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>205.3252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>185.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I3" t="n">
-        <v>123.96</v>
+        <v>171.808</v>
       </c>
       <c r="J3" t="n">
-        <v>189.3</v>
+        <v>183.688</v>
       </c>
       <c r="K3" t="n">
-        <v>197.22</v>
+        <v>199.528</v>
       </c>
       <c r="L3" t="n">
-        <v>206.13</v>
+        <v>368.818</v>
       </c>
       <c r="M3" t="n">
-        <v>206.13</v>
+        <v>388.717</v>
       </c>
       <c r="N3" t="n">
-        <v>206.13</v>
+        <v>388.717</v>
       </c>
       <c r="O3" t="n">
-        <v>282.36</v>
+        <v>403.2275858585862</v>
       </c>
       <c r="P3" t="n">
-        <v>282.36</v>
+        <v>440.3525858585862</v>
       </c>
       <c r="Q3" t="n">
-        <v>310.08</v>
+        <v>483.9125858585862</v>
       </c>
       <c r="R3" t="n">
-        <v>402.15</v>
+        <v>548.6585858585862</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>487.6484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>238.1535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>192.1939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="J4" t="n">
-        <v>201.18</v>
+        <v>171.61</v>
       </c>
       <c r="K4" t="n">
-        <v>244.74</v>
+        <v>179.53</v>
       </c>
       <c r="L4" t="n">
-        <v>251.67</v>
+        <v>193.39</v>
       </c>
       <c r="M4" t="n">
-        <v>251.67</v>
+        <v>193.39</v>
       </c>
       <c r="N4" t="n">
-        <v>259.59</v>
+        <v>343.87</v>
       </c>
       <c r="O4" t="n">
-        <v>266.52</v>
+        <v>357.73</v>
       </c>
       <c r="P4" t="n">
-        <v>270.48</v>
+        <v>365.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>281.7492929292918</v>
+        <v>374.1472929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>225.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>108.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>53.93427201306108</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>22.2</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>11.63079277624767</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.383124171001812</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,46 +3996,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.37227833894621</v>
       </c>
       <c r="M2" t="n">
-        <v>75.3</v>
+        <v>21.6</v>
       </c>
       <c r="N2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>24.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.6571574329153353</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.583124171001764</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.873359861238654</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.87555147435</v>
+        <v>79632.81259463314</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="D2" t="n">
-        <v>15404.58112947659</v>
+        <v>15789.36334291106</v>
       </c>
       <c r="E2" t="n">
-        <v>1100</v>
+        <v>2220</v>
       </c>
       <c r="F2" t="n">
-        <v>24966.52562484596</v>
+        <v>22604.61868258214</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-32</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-19.2</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-12.8</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-12.8</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-12.8</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>23.70000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>24.6</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>109.6</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>123.3</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>104.1</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>17.3</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-42.10000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-87.8</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-115.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-96</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-76.8</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-38.4</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-32</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-19.2</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-12.8</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-19.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>120.6</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>160.8</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>180.9</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>143.3999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>96.8</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>140.7</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>30.09999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>36.5</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>60.3</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-62.20000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-128</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-76.8</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-38.4</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-32</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-19.2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-19.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>20.1</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>140.7</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>103.2</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>160.8</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>140.7</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>40.2</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>20.1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-128</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-38.4</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>35.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>26.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>29.53686358534843</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>60.30799918375379</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>29.6</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="L2" t="n">
-        <v>118.5722783389462</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>15.3</v>
+        <v>63.7</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>48.47335986123866</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>171</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>20.1</v>
+        <v>65.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14.65715743291534</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>37.5</v>
+        <v>0.9368635853480679</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>47.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>60.30799918375379</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.583124171001764</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>11.3</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>63</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>108.2</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>89</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>69.8</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>44.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>19.19999999999891</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12.80000000000109</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>19.19999999999891</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>44.80000000000037</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>76.80000000000109</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>38.39999999999964</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>19.19999999999891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>19.19999999999891</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>38.39999999999964</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090909106</v>
+        <v>149.6363636363635</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393939416</v>
+        <v>137.3131313131312</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262626278</v>
+        <v>131.4545454545454</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131313139</v>
+        <v>125.5959595959595</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>119.7373737373736</v>
       </c>
       <c r="G2" t="n">
-        <v>176.659</v>
+        <v>136.5673737373737</v>
       </c>
       <c r="H2" t="n">
-        <v>230.812</v>
+        <v>165.8713737373737</v>
       </c>
       <c r="I2" t="n">
-        <v>261.502</v>
+        <v>185.9683737373737</v>
       </c>
       <c r="J2" t="n">
-        <v>294.469</v>
+        <v>207.1543737373737</v>
       </c>
       <c r="K2" t="n">
-        <v>381.193</v>
+        <v>250.0213737373737</v>
       </c>
       <c r="L2" t="n">
-        <v>498.5795555555567</v>
+        <v>306.8473737373737</v>
       </c>
       <c r="M2" t="n">
-        <v>513.7265555555567</v>
+        <v>369.9103737373737</v>
       </c>
       <c r="N2" t="n">
-        <v>641.4365555555568</v>
+        <v>439.2103737373737</v>
       </c>
       <c r="O2" t="n">
-        <v>647.3765555555567</v>
+        <v>494.5513737373737</v>
       </c>
       <c r="P2" t="n">
-        <v>647.3765555555567</v>
+        <v>542.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>734.1005555555566</v>
+        <v>578.477</v>
       </c>
       <c r="R2" t="n">
-        <v>758.3555555555556</v>
+        <v>596</v>
       </c>
       <c r="S2" t="n">
-        <v>719.3656565656577</v>
+        <v>584.5858585858585</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292929304</v>
+        <v>520.9494949494949</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111111112</v>
+        <v>411.6565656565656</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626262645</v>
+        <v>321.7575757575757</v>
       </c>
       <c r="W2" t="n">
-        <v>336.638383838385</v>
+        <v>251.2525252525252</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313131332</v>
+        <v>206.6060606060605</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919191934</v>
+        <v>174.8888888888888</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252518</v>
+        <v>170.9171717171706</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282828</v>
+        <v>151.5232323232323</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="G3" t="n">
-        <v>152.8</v>
+        <v>119.2</v>
       </c>
       <c r="H3" t="n">
-        <v>152.8</v>
+        <v>119.2</v>
       </c>
       <c r="I3" t="n">
-        <v>171.808</v>
+        <v>119.2</v>
       </c>
       <c r="J3" t="n">
-        <v>183.688</v>
+        <v>172.066</v>
       </c>
       <c r="K3" t="n">
-        <v>199.528</v>
+        <v>242.554</v>
       </c>
       <c r="L3" t="n">
-        <v>368.818</v>
+        <v>321.853</v>
       </c>
       <c r="M3" t="n">
-        <v>388.717</v>
+        <v>386.7970000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>388.717</v>
+        <v>431.5450000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>403.2275858585862</v>
+        <v>493.2220000000004</v>
       </c>
       <c r="P3" t="n">
-        <v>440.3525858585862</v>
+        <v>494.149494949495</v>
       </c>
       <c r="Q3" t="n">
-        <v>483.9125858585862</v>
+        <v>494.149494949495</v>
       </c>
       <c r="R3" t="n">
-        <v>548.6585858585862</v>
+        <v>494.149494949495</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484852</v>
+        <v>448.8969696969693</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353539</v>
+        <v>319.6040404040401</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353539</v>
+        <v>319.6040404040401</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353539</v>
+        <v>319.6040404040401</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474744</v>
+        <v>242.0282828282814</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474744</v>
+        <v>242.0282828282814</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535346</v>
+        <v>203.240404040403</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939379</v>
+        <v>157.9878787878766</v>
       </c>
       <c r="C4" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="D4" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="E4" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="F4" t="n">
-        <v>172.496969696969</v>
+        <v>138.5939393939383</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>119.2</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>119.2</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>119.2</v>
       </c>
       <c r="J4" t="n">
-        <v>171.61</v>
+        <v>119.2</v>
       </c>
       <c r="K4" t="n">
-        <v>179.53</v>
+        <v>119.2</v>
       </c>
       <c r="L4" t="n">
-        <v>193.39</v>
+        <v>180.877</v>
       </c>
       <c r="M4" t="n">
-        <v>193.39</v>
+        <v>228.1990000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>343.87</v>
+        <v>298.6870000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>357.73</v>
+        <v>358.3919191919166</v>
       </c>
       <c r="P4" t="n">
-        <v>365.65</v>
+        <v>358.3919191919166</v>
       </c>
       <c r="Q4" t="n">
-        <v>374.1472929292918</v>
+        <v>358.3919191919166</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292918</v>
+        <v>358.3919191919166</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292918</v>
+        <v>358.3919191919166</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161605</v>
+        <v>229.0989898989873</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161605</v>
+        <v>229.0989898989873</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161605</v>
+        <v>229.0989898989873</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161605</v>
+        <v>229.0989898989873</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161605</v>
+        <v>229.0989898989873</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222222</v>
+        <v>190.3111111111089</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,43 +3996,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.37227833894621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,22 +4091,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6571574329153353</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.583124171001764</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>77388.66797673707</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>25654.70836183914</v>
+        <v>25654.70836183912</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1903,10 +2153,10 @@
         <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>30.78312417100183</v>
       </c>
       <c r="P4" t="n">
         <v>27.2</v>
@@ -2052,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
         <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>58.73427201305383</v>
       </c>
       <c r="K2" t="n">
         <v>21.6</v>
@@ -2079,19 +2329,19 @@
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>136.2342720130611</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
         <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>95</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2156,13 +2406,13 @@
         <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>5.630792776247632</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
         <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>20.63079277624766</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2227,10 +2477,10 @@
         <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>30.78312417100183</v>
       </c>
       <c r="P4" t="n">
         <v>27.2</v>
@@ -2700,43 +2950,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>125.742</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>139.8</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>236.8200000000043</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>294.9669292929276</v>
       </c>
       <c r="K2" t="n">
-        <v>223.653</v>
+        <v>316.3509292929276</v>
       </c>
       <c r="L2" t="n">
-        <v>256.917</v>
+        <v>349.6149292929276</v>
       </c>
       <c r="M2" t="n">
-        <v>294.3389999999999</v>
+        <v>387.0369292929276</v>
       </c>
       <c r="N2" t="n">
-        <v>335.9189999999999</v>
+        <v>428.6169292929276</v>
       </c>
       <c r="O2" t="n">
-        <v>365.6189999999999</v>
+        <v>458.3169292929276</v>
       </c>
       <c r="P2" t="n">
-        <v>500.4909292929304</v>
+        <v>483.8589292929276</v>
       </c>
       <c r="Q2" t="n">
-        <v>521.8749292929305</v>
+        <v>505.2429292929276</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0729292929304</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2804,10 +3054,10 @@
         <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>434.424</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2875,7 +3125,7 @@
         <v>231.474</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>285.33</v>
       </c>
       <c r="O4" t="n">
         <v>315.8052929292918</v>
@@ -3357,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56.93427201305384</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3375,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>110.4342720130611</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3452,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2307927762476334</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.2307927762476404</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3708,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>4.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4029,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,28 +523,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>61.20999999999179</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61.21000000089975</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.229182089446113e-09</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -555,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -564,37 +562,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>117.0378287828557</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.607418198545929e-09</v>
       </c>
     </row>
     <row r="4">
@@ -730,22 +728,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.20999999998858</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>122.3999999987968</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>95.32500000121604</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>61.20999999459971</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.87555147069</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15404.58112946707</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24966.52562484825</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1200,10 +808,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10216</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>5215</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>684.4720000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1920.60800000006</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3166.960000000119</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3943.376000000119</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4055.75200000012</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3575.6</v>
       </c>
       <c r="M2" t="n">
-        <v>8.999999999999996</v>
+        <v>2686.808000000118</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1614.12800000006</v>
       </c>
       <c r="O2" t="n">
-        <v>8.999999999999996</v>
+        <v>643.6080000000156</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.43200000000092</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>306.4800000000147</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1557.667788996747</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5887</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>6012.999999996958</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>602.7440000000294</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.8640000014634</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>459.7200000000149</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2707.240000005474</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>824.04</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6106.909656565657</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6195.280000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>5424.696000000235</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2305,28 +1813,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1206.038000001462</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2600.290000004562</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3552.79600000092</v>
       </c>
       <c r="K2" t="n">
-        <v>87.60000000370201</v>
+        <v>3587.447000000906</v>
       </c>
       <c r="L2" t="n">
-        <v>122.4000000006519</v>
+        <v>3076.940000001413</v>
       </c>
       <c r="M2" t="n">
-        <v>130.4722783337982</v>
+        <v>1987.183000004289</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>693.4180000000003</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2000000007218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2376,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1095.667788996747</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2385,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5215</v>
       </c>
       <c r="K3" t="n">
-        <v>174.4000000002562</v>
+        <v>5214.999999996958</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2403,16 +1911,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36.45715743142201</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2427,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-6.885720793547989e-08</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -2456,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2029.360000005469</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2465,31 +1973,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>5128.309656565657</v>
       </c>
       <c r="L4" t="n">
-        <v>126</v>
+        <v>5215</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>88.38312417107261</v>
+        <v>4483.895999998973</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1089.110000000006</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>1000.6</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>873.7700000000058</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>855.2300000000058</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>60.02299999850617</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>413.6269999969333</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1079.248000000007</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1033.909999998838</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1019.059999999774</v>
       </c>
       <c r="S2" t="n">
-        <v>38.60000000000001</v>
+        <v>1021.61</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1167.360000000006</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1256.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1224.35</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1175.59</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1023.092171217145</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>942.0600000000062</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.49999999999994</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004661</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995345</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>314.1699999966094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004655</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>217.5409999986261</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.6960000011049</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881256</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>129.9999999999636</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999991633</v>
+        <v>1129.799999931143</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>905.9999999983926</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.219999999997</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>401.5149999999852</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2798,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.008447725325823e-09</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.340000000203</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1207.9</v>
       </c>
       <c r="T4" t="n">
-        <v>129.9999999999272</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1398.580000001203</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1402.934999999133</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1245.720000004684</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>213.5353535353298</v>
+        <v>8137.538383836426</v>
       </c>
       <c r="C2" t="n">
-        <v>193.8383838383131</v>
+        <v>6989.801010099052</v>
       </c>
       <c r="D2" t="n">
-        <v>180.707070707047</v>
+        <v>5979.093939391973</v>
       </c>
       <c r="E2" t="n">
-        <v>167.5757575757809</v>
+        <v>5096.497979796008</v>
       </c>
       <c r="F2" t="n">
-        <v>154.4444444445148</v>
+        <v>4232.629292925256</v>
       </c>
       <c r="G2" t="n">
-        <v>154.4444444445148</v>
+        <v>4172</v>
       </c>
       <c r="H2" t="n">
-        <v>154.4444444445148</v>
+        <v>5365.977619998919</v>
       </c>
       <c r="I2" t="n">
-        <v>154.4444444445148</v>
+        <v>7940.264720003435</v>
       </c>
       <c r="J2" t="n">
-        <v>154.4444444445148</v>
+        <v>11457.53276000435</v>
       </c>
       <c r="K2" t="n">
-        <v>241.1684444481798</v>
+        <v>15009.10529000524</v>
       </c>
       <c r="L2" t="n">
-        <v>362.3444444488252</v>
+        <v>18055.27589000664</v>
       </c>
       <c r="M2" t="n">
-        <v>491.5119999992854</v>
+        <v>20022.58706001089</v>
       </c>
       <c r="N2" t="n">
-        <v>642.9819999992854</v>
+        <v>20709.07088001089</v>
       </c>
       <c r="O2" t="n">
-        <v>760</v>
+        <v>20291.26582950893</v>
       </c>
       <c r="P2" t="n">
-        <v>760</v>
+        <v>19201.11633455943</v>
       </c>
       <c r="Q2" t="n">
-        <v>760</v>
+        <v>18156.76279920707</v>
       </c>
       <c r="R2" t="n">
-        <v>760</v>
+        <v>17127.40926385376</v>
       </c>
       <c r="S2" t="n">
-        <v>721.010101010101</v>
+        <v>16095.47997092447</v>
       </c>
       <c r="T2" t="n">
-        <v>633.7373737373737</v>
+        <v>14916.32845577295</v>
       </c>
       <c r="U2" t="n">
-        <v>515.5555555555085</v>
+        <v>13646.833506278</v>
       </c>
       <c r="V2" t="n">
-        <v>417.07070707066</v>
+        <v>12410.11633456083</v>
       </c>
       <c r="W2" t="n">
-        <v>338.2828282828281</v>
+        <v>11222.65168809618</v>
       </c>
       <c r="X2" t="n">
-        <v>285.7575757575286</v>
+        <v>10189.22525252331</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.3636363636127</v>
+        <v>9237.649494947544</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416.6666666679382</v>
+        <v>6059.54545454203</v>
       </c>
       <c r="C3" t="n">
-        <v>396.9696969709214</v>
+        <v>5240.35353535011</v>
       </c>
       <c r="D3" t="n">
-        <v>383.8383838396553</v>
+        <v>4489.343434340009</v>
       </c>
       <c r="E3" t="n">
-        <v>383.8383838396553</v>
+        <v>4172</v>
       </c>
       <c r="F3" t="n">
-        <v>383.8383838396553</v>
+        <v>5256.71111110631</v>
       </c>
       <c r="G3" t="n">
-        <v>364.1414141426386</v>
+        <v>5256.71111110631</v>
       </c>
       <c r="H3" t="n">
-        <v>364.1414141426386</v>
+        <v>5256.71111110631</v>
       </c>
       <c r="I3" t="n">
-        <v>372.0614141426385</v>
+        <v>5256.71111110631</v>
       </c>
       <c r="J3" t="n">
-        <v>378.0014141426385</v>
+        <v>10419.56111110631</v>
       </c>
       <c r="K3" t="n">
-        <v>550.6574141428921</v>
+        <v>15582.4111111033</v>
       </c>
       <c r="L3" t="n">
-        <v>711.0374141428922</v>
+        <v>15582.4111111033</v>
       </c>
       <c r="M3" t="n">
-        <v>711.0374141428922</v>
+        <v>15582.4111111033</v>
       </c>
       <c r="N3" t="n">
-        <v>711.0374141428922</v>
+        <v>15582.4111111033</v>
       </c>
       <c r="O3" t="n">
-        <v>717.9674141428923</v>
+        <v>15582.4111111033</v>
       </c>
       <c r="P3" t="n">
-        <v>754.0600000000001</v>
+        <v>15582.4111111033</v>
       </c>
       <c r="Q3" t="n">
-        <v>754.0600000000001</v>
+        <v>15362.6727272663</v>
       </c>
       <c r="R3" t="n">
-        <v>760</v>
+        <v>14461.96969696327</v>
       </c>
       <c r="S3" t="n">
-        <v>698.9898989910984</v>
+        <v>13501.56565655923</v>
       </c>
       <c r="T3" t="n">
-        <v>567.6767676779679</v>
+        <v>12386.91919191277</v>
       </c>
       <c r="U3" t="n">
-        <v>567.6767676779679</v>
+        <v>11176.3131313067</v>
       </c>
       <c r="V3" t="n">
-        <v>567.6767676779679</v>
+        <v>9991.464646458218</v>
       </c>
       <c r="W3" t="n">
-        <v>488.8888888901369</v>
+        <v>8850.252525247481</v>
       </c>
       <c r="X3" t="n">
-        <v>488.8888888901369</v>
+        <v>7862.878787873744</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.494949496221</v>
+        <v>6947.727272723852</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>556.4646464646713</v>
+        <v>7683.32828282285</v>
       </c>
       <c r="C4" t="n">
-        <v>536.7676767676546</v>
+        <v>6586.136363630934</v>
       </c>
       <c r="D4" t="n">
-        <v>536.7676767676546</v>
+        <v>5554.318181812752</v>
       </c>
       <c r="E4" t="n">
-        <v>536.7676767676546</v>
+        <v>4577.570707065278</v>
       </c>
       <c r="F4" t="n">
-        <v>536.7676767676546</v>
+        <v>4171.999999997086</v>
       </c>
       <c r="G4" t="n">
-        <v>517.0707070706379</v>
+        <v>6181.0664</v>
       </c>
       <c r="H4" t="n">
-        <v>517.0707070706379</v>
+        <v>6181.0664</v>
       </c>
       <c r="I4" t="n">
-        <v>517.0707070706379</v>
+        <v>6181.0664</v>
       </c>
       <c r="J4" t="n">
-        <v>519.0507070706379</v>
+        <v>6181.0664</v>
       </c>
       <c r="K4" t="n">
-        <v>526.970707070638</v>
+        <v>11258.09296</v>
       </c>
       <c r="L4" t="n">
-        <v>651.7107070706379</v>
+        <v>16420.94296</v>
       </c>
       <c r="M4" t="n">
-        <v>651.710707070638</v>
+        <v>16420.94296</v>
       </c>
       <c r="N4" t="n">
-        <v>739.2099999999999</v>
+        <v>20860</v>
       </c>
       <c r="O4" t="n">
-        <v>746.14</v>
+        <v>20860</v>
       </c>
       <c r="P4" t="n">
-        <v>754.0599999999999</v>
+        <v>20860</v>
       </c>
       <c r="Q4" t="n">
-        <v>758.02</v>
+        <v>19583.89898989899</v>
       </c>
       <c r="R4" t="n">
-        <v>759.9999999999999</v>
+        <v>18312.9696969697</v>
       </c>
       <c r="S4" t="n">
-        <v>759.9999999999999</v>
+        <v>17092.86868686868</v>
       </c>
       <c r="T4" t="n">
-        <v>628.6868686868701</v>
+        <v>15653.88888888889</v>
       </c>
       <c r="U4" t="n">
-        <v>628.6868686868701</v>
+        <v>14241.1818181806</v>
       </c>
       <c r="V4" t="n">
-        <v>628.6868686868701</v>
+        <v>12824.07575757577</v>
       </c>
       <c r="W4" t="n">
-        <v>628.6868686868701</v>
+        <v>11352.91414141415</v>
       </c>
       <c r="X4" t="n">
-        <v>628.6868686868701</v>
+        <v>10094.61111110568</v>
       </c>
       <c r="Y4" t="n">
-        <v>589.2929292929542</v>
+        <v>8845.297979792547</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.100000000000003</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>115.1722783333791</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6921,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -6936,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>72.38312417107261</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,43 +6664,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.699999999999997</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -7260,16 +6768,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.60000000134948</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -7331,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375068.514912566</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>430605.1479016969</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>183395</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.60000000370201</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8.557157430956352</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>1073897.073502839</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 9.xlsx
+++ b/model/Output Files/Year 9.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,28 +524,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111.0000000017351</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>61.20999999999179</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
-        <v>61.21000000089975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.229182089446113e-09</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -562,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.20999999999185</v>
+        <v>55.85832278034047</v>
       </c>
       <c r="P2" t="n">
-        <v>61.20999999999185</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>122.4</v>
+        <v>111.0000000017351</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>117.0378287828557</v>
+        <v>111.0000000017351</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -669,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.607418198545929e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -722,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>55.50999999961314</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.20999999998858</v>
+        <v>55.50999999999476</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="U4" t="n">
-        <v>122.3999999987968</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>95.32500000121604</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>61.20999999459971</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.3349999992332</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384628.915548826</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>428867.7411321294</v>
+      </c>
+      <c r="E2" t="n">
+        <v>183040</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1083925.391374748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -808,10 +875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10216</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5215</v>
+        <v>5250</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>684.4720000000002</v>
+        <v>683.8020000000294</v>
       </c>
       <c r="H2" t="n">
-        <v>1920.60800000006</v>
+        <v>1918.728000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>3166.960000000119</v>
+        <v>3163.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3943.376000000119</v>
+        <v>3939.516000000118</v>
       </c>
       <c r="K2" t="n">
-        <v>4055.75200000012</v>
+        <v>4051.782</v>
       </c>
       <c r="L2" t="n">
-        <v>3575.6</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2686.808000000118</v>
+        <v>2684.178</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.12800000006</v>
+        <v>1612.548000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>643.6080000000156</v>
+        <v>642.9780000000293</v>
       </c>
       <c r="P2" t="n">
-        <v>20.43200000000092</v>
+        <v>20.41200000000092</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>306.4800000000147</v>
+        <v>306.1800000000147</v>
       </c>
       <c r="F3" t="n">
-        <v>1557.667788996747</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
         <v>504</v>
@@ -1572,13 +1689,13 @@
         <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>5887</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>6012.999999996958</v>
+        <v>6048</v>
       </c>
       <c r="L3" t="n">
-        <v>798</v>
+        <v>2186.656306698545</v>
       </c>
       <c r="M3" t="n">
         <v>756</v>
@@ -1587,16 +1704,16 @@
         <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>739.2</v>
+        <v>4072.194</v>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>2286.144</v>
       </c>
       <c r="Q3" t="n">
-        <v>602.7440000000294</v>
+        <v>602.1540000000293</v>
       </c>
       <c r="R3" t="n">
-        <v>40.8640000014634</v>
+        <v>40.82400000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>459.7200000000149</v>
+        <v>459.2700000000149</v>
       </c>
       <c r="G4" t="n">
-        <v>2707.240000005474</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
         <v>805.5599999999999</v>
@@ -1649,19 +1766,19 @@
         <v>824.04</v>
       </c>
       <c r="J4" t="n">
-        <v>850.9200000000001</v>
+        <v>6100.92</v>
       </c>
       <c r="K4" t="n">
-        <v>6106.909656565657</v>
+        <v>6228.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6195.280000000001</v>
+        <v>2935.027333336312</v>
       </c>
       <c r="M4" t="n">
         <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>5424.696000000235</v>
+        <v>5419.386</v>
       </c>
       <c r="O4" t="n">
         <v>925.6800000000001</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1206.038000001462</v>
+        <v>1165.948</v>
       </c>
       <c r="I2" t="n">
-        <v>2600.290000004562</v>
+        <v>2635.190000002054</v>
       </c>
       <c r="J2" t="n">
-        <v>3552.79600000092</v>
+        <v>3595.936</v>
       </c>
       <c r="K2" t="n">
-        <v>3587.447000000906</v>
+        <v>3631.477000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>3076.940000001413</v>
+        <v>3055.23000000142</v>
       </c>
       <c r="M2" t="n">
-        <v>1987.183000004289</v>
+        <v>2016.553000004294</v>
       </c>
       <c r="N2" t="n">
-        <v>693.4180000000003</v>
+        <v>710.8379999999999</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1884,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1095.667788996747</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1896,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5215</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5214.999999996958</v>
+        <v>5250</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1388.656306698545</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1911,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3332.994000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1614.144</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1935,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-6.885720793547989e-08</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1964,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2029.360000005469</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1973,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="K4" t="n">
-        <v>5128.309656565657</v>
+        <v>5250</v>
       </c>
       <c r="L4" t="n">
-        <v>5215</v>
+        <v>1954.747333336312</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4483.895999998973</v>
+        <v>4478.586</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089.110000000006</v>
+        <v>1100.509999998364</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.26</v>
+        <v>1025.26</v>
       </c>
       <c r="D2" t="n">
-        <v>1000.6</v>
+        <v>950.8099999996062</v>
       </c>
       <c r="E2" t="n">
-        <v>873.7700000000058</v>
+        <v>920.1700000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>855.2300000000058</v>
+        <v>866.63</v>
       </c>
       <c r="G2" t="n">
-        <v>60.02299999850617</v>
+        <v>64.09299999810662</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>413.6269999969333</v>
+        <v>412.6086772165863</v>
       </c>
       <c r="P2" t="n">
-        <v>1079.248000000007</v>
+        <v>1029.477999999995</v>
       </c>
       <c r="Q2" t="n">
-        <v>1033.909999998838</v>
+        <v>1080.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1019.059999999774</v>
+        <v>1030.46</v>
       </c>
       <c r="S2" t="n">
-        <v>1021.61</v>
+        <v>1033.009999998341</v>
       </c>
       <c r="T2" t="n">
-        <v>1167.360000000006</v>
+        <v>1178.759999999606</v>
       </c>
       <c r="U2" t="n">
-        <v>1256.8</v>
+        <v>1268.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1224.35</v>
+        <v>1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1175.59</v>
+        <v>1186.99</v>
       </c>
       <c r="X2" t="n">
-        <v>1023.092171217145</v>
+        <v>1029.129999998265</v>
       </c>
       <c r="Y2" t="n">
-        <v>942.0600000000062</v>
+        <v>953.4599999996262</v>
       </c>
     </row>
     <row r="3">
@@ -2205,7 +2322,7 @@
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>314.1699999966094</v>
+        <v>345.469999996624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>217.5409999986261</v>
+        <v>245.1309999986263</v>
       </c>
       <c r="R3" t="n">
-        <v>891.6960000011049</v>
+        <v>891.7360000000001</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2259,13 +2376,13 @@
         <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1129.799999931143</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
         <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>905.9999999983926</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2276,16 +2393,16 @@
         <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.219999999997</v>
+        <v>1086.220000000011</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999999</v>
+        <v>1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>401.5149999999852</v>
+        <v>396.9650000000039</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2306,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.008447725325823e-09</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.340000000203</v>
+        <v>1242.830000000387</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.22</v>
+        <v>1258.220000000248</v>
       </c>
       <c r="S4" t="n">
-        <v>1207.9</v>
+        <v>1213.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.59</v>
+        <v>1313.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1398.580000001203</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1402.934999999133</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
         <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>1245.720000004684</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.82</v>
+        <v>1128.485000000767</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8137.538383836426</v>
+        <v>8065.619191916882</v>
       </c>
       <c r="C2" t="n">
-        <v>6989.801010099052</v>
+        <v>7030.003030300721</v>
       </c>
       <c r="D2" t="n">
-        <v>5979.093939391973</v>
+        <v>6069.588888886415</v>
       </c>
       <c r="E2" t="n">
-        <v>5096.497979796008</v>
+        <v>5140.124242418842</v>
       </c>
       <c r="F2" t="n">
-        <v>4232.629292925256</v>
+        <v>4264.740404036838</v>
       </c>
       <c r="G2" t="n">
-        <v>4172</v>
+        <v>4200</v>
       </c>
       <c r="H2" t="n">
-        <v>5365.977619998919</v>
+        <v>5354.28852</v>
       </c>
       <c r="I2" t="n">
-        <v>7940.264720003435</v>
+        <v>7963.126619999653</v>
       </c>
       <c r="J2" t="n">
-        <v>11457.53276000435</v>
+        <v>11523.10326000203</v>
       </c>
       <c r="K2" t="n">
-        <v>15009.10529000524</v>
+        <v>15118.26549000281</v>
       </c>
       <c r="L2" t="n">
-        <v>18055.27589000664</v>
+        <v>18142.94318999349</v>
       </c>
       <c r="M2" t="n">
-        <v>20022.58706001089</v>
+        <v>20139.33066000847</v>
       </c>
       <c r="N2" t="n">
-        <v>20709.07088001089</v>
+        <v>20843.06028000847</v>
       </c>
       <c r="O2" t="n">
-        <v>20291.26582950893</v>
+        <v>20426.28383837555</v>
       </c>
       <c r="P2" t="n">
-        <v>19201.11633455943</v>
+        <v>19386.40707069117</v>
       </c>
       <c r="Q2" t="n">
-        <v>18156.76279920707</v>
+        <v>18295.18484847656</v>
       </c>
       <c r="R2" t="n">
-        <v>17127.40926385376</v>
+        <v>17254.31616160787</v>
       </c>
       <c r="S2" t="n">
-        <v>16095.47997092447</v>
+        <v>16210.87171716024</v>
       </c>
       <c r="T2" t="n">
-        <v>14916.32845577295</v>
+        <v>15020.20505049486</v>
       </c>
       <c r="U2" t="n">
-        <v>13646.833506278</v>
+        <v>13739.19494948881</v>
       </c>
       <c r="V2" t="n">
-        <v>12410.11633456083</v>
+        <v>12378.84141413323</v>
       </c>
       <c r="W2" t="n">
-        <v>11222.65168809618</v>
+        <v>11179.86161615458</v>
       </c>
       <c r="X2" t="n">
-        <v>10189.22525252331</v>
+        <v>10140.33636363198</v>
       </c>
       <c r="Y2" t="n">
-        <v>9237.649494947544</v>
+        <v>9177.245454540691</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6059.54545454203</v>
+        <v>6119.161616144054</v>
       </c>
       <c r="C3" t="n">
-        <v>5240.35353535011</v>
+        <v>5299.969696951372</v>
       </c>
       <c r="D3" t="n">
-        <v>4489.343434340009</v>
+        <v>4548.959595956186</v>
       </c>
       <c r="E3" t="n">
-        <v>4172</v>
+        <v>4200</v>
       </c>
       <c r="F3" t="n">
-        <v>5256.71111110631</v>
+        <v>4200</v>
       </c>
       <c r="G3" t="n">
-        <v>5256.71111110631</v>
+        <v>4200</v>
       </c>
       <c r="H3" t="n">
-        <v>5256.71111110631</v>
+        <v>4200</v>
       </c>
       <c r="I3" t="n">
-        <v>5256.71111110631</v>
+        <v>4200</v>
       </c>
       <c r="J3" t="n">
-        <v>10419.56111110631</v>
+        <v>4200</v>
       </c>
       <c r="K3" t="n">
-        <v>15582.4111111033</v>
+        <v>9397.5</v>
       </c>
       <c r="L3" t="n">
-        <v>15582.4111111033</v>
+        <v>10772.26974362921</v>
       </c>
       <c r="M3" t="n">
-        <v>15582.4111111033</v>
+        <v>10772.26974363156</v>
       </c>
       <c r="N3" t="n">
-        <v>15582.4111111033</v>
+        <v>10772.26974363156</v>
       </c>
       <c r="O3" t="n">
-        <v>15582.4111111033</v>
+        <v>14071.93380362673</v>
       </c>
       <c r="P3" t="n">
-        <v>15582.4111111033</v>
+        <v>15669.93636363156</v>
       </c>
       <c r="Q3" t="n">
-        <v>15362.6727272663</v>
+        <v>15422.32929292588</v>
       </c>
       <c r="R3" t="n">
-        <v>14461.96969696327</v>
+        <v>14521.58585857516</v>
       </c>
       <c r="S3" t="n">
-        <v>13501.56565655923</v>
+        <v>13561.1818181784</v>
       </c>
       <c r="T3" t="n">
-        <v>12386.91919191277</v>
+        <v>12446.53535353194</v>
       </c>
       <c r="U3" t="n">
-        <v>11176.3131313067</v>
+        <v>11235.92929292588</v>
       </c>
       <c r="V3" t="n">
-        <v>9991.464646458218</v>
+        <v>10051.08080806687</v>
       </c>
       <c r="W3" t="n">
-        <v>8850.252525247481</v>
+        <v>8909.868686853917</v>
       </c>
       <c r="X3" t="n">
-        <v>7862.878787873744</v>
+        <v>7922.494949491535</v>
       </c>
       <c r="Y3" t="n">
-        <v>6947.727272723852</v>
+        <v>7007.343434340019</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7683.32828282285</v>
+        <v>7778.085858585859</v>
       </c>
       <c r="C4" t="n">
-        <v>6586.136363630934</v>
+        <v>6680.893939393939</v>
       </c>
       <c r="D4" t="n">
-        <v>5554.318181812752</v>
+        <v>5649.075757575757</v>
       </c>
       <c r="E4" t="n">
-        <v>4577.570707065278</v>
+        <v>4636.974747473992</v>
       </c>
       <c r="F4" t="n">
-        <v>4171.999999997086</v>
+        <v>4235.999999998706</v>
       </c>
       <c r="G4" t="n">
-        <v>6181.0664</v>
+        <v>4235.999999998109</v>
       </c>
       <c r="H4" t="n">
-        <v>6181.0664</v>
+        <v>4235.999999997051</v>
       </c>
       <c r="I4" t="n">
-        <v>6181.0664</v>
+        <v>4235.999999997051</v>
       </c>
       <c r="J4" t="n">
-        <v>6181.0664</v>
+        <v>9433.499999997051</v>
       </c>
       <c r="K4" t="n">
-        <v>11258.09296</v>
+        <v>14630.99999999705</v>
       </c>
       <c r="L4" t="n">
-        <v>16420.94296</v>
+        <v>16566.19986</v>
       </c>
       <c r="M4" t="n">
-        <v>16420.94296</v>
+        <v>16566.19986</v>
       </c>
       <c r="N4" t="n">
-        <v>20860</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>20860</v>
+        <v>20999.99999999667</v>
       </c>
       <c r="P4" t="n">
-        <v>20860</v>
+        <v>20999.99999999589</v>
       </c>
       <c r="Q4" t="n">
-        <v>19583.89898989899</v>
+        <v>19744.61616161634</v>
       </c>
       <c r="R4" t="n">
-        <v>18312.9696969697</v>
+        <v>18473.68686868765</v>
       </c>
       <c r="S4" t="n">
-        <v>17092.86868686868</v>
+        <v>17247.82828282906</v>
       </c>
       <c r="T4" t="n">
-        <v>15653.88888888889</v>
+        <v>15920.96969696972</v>
       </c>
       <c r="U4" t="n">
-        <v>14241.1818181806</v>
+        <v>14384.6262626256</v>
       </c>
       <c r="V4" t="n">
-        <v>12824.07575757577</v>
+        <v>12871.23232323086</v>
       </c>
       <c r="W4" t="n">
-        <v>11352.91414141415</v>
+        <v>11400.07070707039</v>
       </c>
       <c r="X4" t="n">
-        <v>10094.61111110568</v>
+        <v>10079.93939394017</v>
       </c>
       <c r="Y4" t="n">
-        <v>8845.297979792547</v>
+        <v>8940.055555555555</v>
       </c>
     </row>
     <row r="5">
@@ -6346,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.3700000011595</v>
+        <v>146.3699999999999</v>
       </c>
       <c r="J2" t="n">
         <v>311.1</v>
@@ -6667,13 +6784,13 @@
         <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>49.04000000050291</v>
+        <v>49.03999999999997</v>
       </c>
       <c r="I2" t="n">
         <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>130.7600000002421</v>
+        <v>130.76</v>
       </c>
       <c r="K2" t="n">
         <v>136</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.60000000134948</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375068.514912566</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>430605.1479016969</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>183395</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1073897.073502839</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
